--- a/Top_down_papi_names.xlsx
+++ b/Top_down_papi_names.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Top_down_event_name</t>
   </si>
@@ -205,13 +205,58 @@
   </si>
   <si>
     <t>Event_4</t>
+  </si>
+  <si>
+    <t>Formula_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 * Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDQ_UOPS_NOT_DELIVERED.CORE / Slots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(UOPS_ISSUED.ANY - UOPS_RETIRED.RETIRE_SLOTS + 4* INT_MISC.RECOVERY_CYCLES) / Slots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOPS_RETIRED.RETIRE_SLOTS / Slots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – (Frontend Bound + Bad Speculation + Retiring) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDQ_UOPS_NOT_DELIVERED.CORE: [≥ 4] / Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR_MISP_RETIRED.ALL_BRANCHES / ( BR_MISP_RETIRED.ALL_BRANCHES + MACHINE_CLEARS.COUNT ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOPS_RETIRED.RETIRE_SLOTS / UOPS_ISSUED.ANY * IDQ.MS_UOPS / Slots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CYCLE_ACTIVITY.STALLS_MEM_ANY - CYCLE_ACTIVITY.STALLS_L1D_MISS) / Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CYCLE_ACTIVITY.STALLS_L1D_MISS - CYCLE_ACTIVITY.STALLS_L2_MISS)/Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM_LOAD_UOPS_RETIRED.LLC_HIT / (MEM_LOAD_UOPS_RETIRED.LLC_HIT +7*MEM_LOAD_UOPS_RETIRED.LLC_MISS ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 - #L3HitFraction) * CYCLE_ACTIVITY.STALLS_L2_MISS / Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CYCLE_ACTIVITY.CYCLES_NO_EXECUTE - RS_EVENTS.EMPTY_CYCLES + UOPS_EXECUTED.THREAD: [≥ 1] - UOPS_EXECUTED.THREAD: [≥ 2]) / Clocks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CYCLE_ACTIVITY.STALLS_MEM_ANY + RESOURCE_STALLS.SB ) / Clocks </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +300,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,24 +428,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,8 +457,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -455,6 +527,13 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -506,6 +585,13 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,7 +924,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" activeCellId="1" sqref="C31:C32 D30"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,7 +932,7 @@
     <col min="1" max="1" width="42.83203125" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -857,21 +943,23 @@
       <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
@@ -884,8 +972,11 @@
       <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,6 +985,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -906,6 +1000,9 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -917,6 +1014,9 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D6" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -927,6 +1027,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -935,6 +1038,9 @@
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
@@ -942,22 +1048,27 @@
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D9" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="27">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -967,8 +1078,11 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,6 +1091,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -989,6 +1106,9 @@
       <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="D14" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -998,6 +1118,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -1007,8 +1128,9 @@
         <v>16</v>
       </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1016,8 +1138,9 @@
         <v>18</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1025,22 +1148,25 @@
         <v>31</v>
       </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1050,8 +1176,11 @@
       <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1061,8 +1190,11 @@
       <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1072,8 +1204,11 @@
       <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1083,8 +1218,11 @@
       <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1094,8 +1232,11 @@
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1105,8 +1246,11 @@
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1116,22 +1260,27 @@
       <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" ht="27">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1141,8 +1290,11 @@
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1152,8 +1304,11 @@
       <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1163,40 +1318,49 @@
       <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
